--- a/design/Config/Common/Loader.xlsx
+++ b/design/Config/Common/Loader.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\GamePF\gamepf_doc\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\xyx_wp\doc\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11AA200E-C893-42C3-87BC-C5FA986CFE77}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="sysmsg" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="sysmsg" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="C:\Users\ZF\Desktop\sysmsg.csv" tab="0" semicolon="1">
       <textFields>
         <textField/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,6 +170,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,23 +525,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -547,21 +549,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -569,12 +571,23 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -586,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -600,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
